--- a/data/input/absenteeism_data_49.xlsx
+++ b/data/input/absenteeism_data_49.xlsx
@@ -476,16 +476,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>14336</v>
+        <v>74717</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dr. Luiz Fernando Cunha</t>
+          <t>Nicole Cavalcanti</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -494,114 +494,114 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45099</v>
+        <v>45085</v>
       </c>
       <c r="G2" t="n">
-        <v>7857.12</v>
+        <v>9161.33</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>80508</v>
+        <v>839</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Joaquim Fernandes</t>
+          <t>Srta. Mariana Cunha</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45095</v>
+        <v>45098</v>
       </c>
       <c r="G3" t="n">
-        <v>8191.14</v>
+        <v>9831.15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1713</v>
+        <v>13520</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Isabella Correia</t>
+          <t>Milena da Mata</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45102</v>
+        <v>45100</v>
       </c>
       <c r="G4" t="n">
-        <v>5299.57</v>
+        <v>11008.57</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>86610</v>
+        <v>91606</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dr. Erick Cunha</t>
+          <t>Daniela Ribeiro</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45095</v>
+        <v>45105</v>
       </c>
       <c r="G5" t="n">
-        <v>11037.65</v>
+        <v>5790.76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>74670</v>
+        <v>95915</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Fernanda da Rocha</t>
+          <t>Eloah da Paz</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -613,53 +613,53 @@
         <v>8</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45092</v>
+        <v>45105</v>
       </c>
       <c r="G6" t="n">
-        <v>12177.8</v>
+        <v>10047.64</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>59447</v>
+        <v>35688</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ana Carolina Rodrigues</t>
+          <t>Nicolas Lima</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45098</v>
+        <v>45079</v>
       </c>
       <c r="G7" t="n">
-        <v>10258</v>
+        <v>5407.51</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>99108</v>
+        <v>60118</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Maria Vitória Cardoso</t>
+          <t>Eduarda Ferreira</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -668,56 +668,56 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45105</v>
+        <v>45079</v>
       </c>
       <c r="G8" t="n">
-        <v>6570.92</v>
+        <v>6557.9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>33576</v>
+        <v>93429</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Calebe Moraes</t>
+          <t>Ana Carolina Silveira</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E9" t="n">
         <v>8</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45106</v>
+        <v>45089</v>
       </c>
       <c r="G9" t="n">
-        <v>5102.09</v>
+        <v>10547.13</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>32726</v>
+        <v>60541</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Bárbara Moraes</t>
+          <t>Sr. Pedro Lucas Caldeira</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -726,42 +726,42 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10" s="2" t="n">
         <v>45092</v>
       </c>
       <c r="G10" t="n">
-        <v>8417.969999999999</v>
+        <v>12093.11</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>10826</v>
+        <v>20267</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sra. Maria Julia Monteiro</t>
+          <t>Francisco da Luz</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45092</v>
+        <v>45101</v>
       </c>
       <c r="G11" t="n">
-        <v>12372.63</v>
+        <v>6507.88</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_49.xlsx
+++ b/data/input/absenteeism_data_49.xlsx
@@ -476,103 +476,103 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>74717</v>
+        <v>50324</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nicole Cavalcanti</t>
+          <t>Levi Fernandes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45085</v>
+        <v>45101</v>
       </c>
       <c r="G2" t="n">
-        <v>9161.33</v>
+        <v>4471.72</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>839</v>
+        <v>93594</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Srta. Mariana Cunha</t>
+          <t>Vinicius Dias</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45098</v>
+        <v>45080</v>
       </c>
       <c r="G3" t="n">
-        <v>9831.15</v>
+        <v>6824.28</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>13520</v>
+        <v>9078</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Milena da Mata</t>
+          <t>Sr. Otávio da Paz</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45100</v>
+        <v>45104</v>
       </c>
       <c r="G4" t="n">
-        <v>11008.57</v>
+        <v>10326.05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>91606</v>
+        <v>64784</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Daniela Ribeiro</t>
+          <t>Felipe Gomes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -581,27 +581,27 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45105</v>
+        <v>45084</v>
       </c>
       <c r="G5" t="n">
-        <v>5790.76</v>
+        <v>9052.02</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>95915</v>
+        <v>48600</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Eloah da Paz</t>
+          <t>Sabrina Dias</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -610,27 +610,27 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45105</v>
+        <v>45079</v>
       </c>
       <c r="G6" t="n">
-        <v>10047.64</v>
+        <v>2648.81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>35688</v>
+        <v>78528</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Nicolas Lima</t>
+          <t>Laura Mendes</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -639,109 +639,109 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45079</v>
+        <v>45098</v>
       </c>
       <c r="G7" t="n">
-        <v>5407.51</v>
+        <v>9491.290000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>60118</v>
+        <v>54793</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Eduarda Ferreira</t>
+          <t>Breno Oliveira</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45079</v>
+        <v>45106</v>
       </c>
       <c r="G8" t="n">
-        <v>6557.9</v>
+        <v>7096.94</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>93429</v>
+        <v>40230</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ana Carolina Silveira</t>
+          <t>Stephany da Mata</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45089</v>
+        <v>45081</v>
       </c>
       <c r="G9" t="n">
-        <v>10547.13</v>
+        <v>7006.5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>60541</v>
+        <v>50354</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sr. Pedro Lucas Caldeira</t>
+          <t>Olivia Nascimento</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10" s="2" t="n">
         <v>45092</v>
       </c>
       <c r="G10" t="n">
-        <v>12093.11</v>
+        <v>5644.25</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>20267</v>
+        <v>23886</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Francisco da Luz</t>
+          <t>Luiz Felipe Sales</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -751,17 +751,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45101</v>
+        <v>45078</v>
       </c>
       <c r="G11" t="n">
-        <v>6507.88</v>
+        <v>6965.2</v>
       </c>
     </row>
   </sheetData>
